--- a/Data/Regression/news_index_dire_senti_lex_PMI_q.xlsx
+++ b/Data/Regression/news_index_dire_senti_lex_PMI_q.xlsx
@@ -456,7 +456,7 @@
         <v>33239</v>
       </c>
       <c r="B2" t="n">
-        <v>0.008237859134113434</v>
+        <v>0.001269100178029484</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         <v>33329</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0004408737867686315</v>
+        <v>0.002123493345024906</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         <v>33420</v>
       </c>
       <c r="B4" t="n">
-        <v>0.006407977123865441</v>
+        <v>0.002417570252038647</v>
       </c>
     </row>
     <row r="5">
@@ -480,7 +480,7 @@
         <v>33512</v>
       </c>
       <c r="B5" t="n">
-        <v>0.001496283766763327</v>
+        <v>0.001781278502778911</v>
       </c>
     </row>
     <row r="6">
@@ -488,7 +488,7 @@
         <v>33604</v>
       </c>
       <c r="B6" t="n">
-        <v>0.004971884653645678</v>
+        <v>0.002250665612961643</v>
       </c>
     </row>
     <row r="7">
@@ -496,7 +496,7 @@
         <v>33695</v>
       </c>
       <c r="B7" t="n">
-        <v>0.004106193543865278</v>
+        <v>0.0009490788883929572</v>
       </c>
     </row>
     <row r="8">
@@ -504,7 +504,7 @@
         <v>33786</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.002189011139680148</v>
+        <v>-0.000767355047224323</v>
       </c>
     </row>
     <row r="9">
@@ -512,7 +512,7 @@
         <v>33878</v>
       </c>
       <c r="B9" t="n">
-        <v>0.008398532902951984</v>
+        <v>0.00108105625348462</v>
       </c>
     </row>
     <row r="10">
@@ -520,7 +520,7 @@
         <v>33970</v>
       </c>
       <c r="B10" t="n">
-        <v>0.008672631484601069</v>
+        <v>0.002112638994823919</v>
       </c>
     </row>
     <row r="11">
@@ -528,7 +528,7 @@
         <v>34060</v>
       </c>
       <c r="B11" t="n">
-        <v>5.343776058030082e-05</v>
+        <v>0.001104501958068285</v>
       </c>
     </row>
     <row r="12">
@@ -536,7 +536,7 @@
         <v>34151</v>
       </c>
       <c r="B12" t="n">
-        <v>5.050082428089148e-05</v>
+        <v>0.001666610441856083</v>
       </c>
     </row>
     <row r="13">
@@ -544,7 +544,7 @@
         <v>34243</v>
       </c>
       <c r="B13" t="n">
-        <v>0.006156788378043534</v>
+        <v>-0.0002267816933740923</v>
       </c>
     </row>
     <row r="14">
@@ -552,7 +552,7 @@
         <v>34335</v>
       </c>
       <c r="B14" t="n">
-        <v>0.002091508463316154</v>
+        <v>0.0005049831457372668</v>
       </c>
     </row>
     <row r="15">
@@ -560,7 +560,7 @@
         <v>34425</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.001270526386621323</v>
+        <v>0.0008337717494168152</v>
       </c>
     </row>
     <row r="16">
@@ -568,7 +568,7 @@
         <v>34516</v>
       </c>
       <c r="B16" t="n">
-        <v>0.00319363334579333</v>
+        <v>0.001182695661209042</v>
       </c>
     </row>
     <row r="17">
@@ -576,7 +576,7 @@
         <v>34608</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.004053125475617268</v>
+        <v>0.001221456864996257</v>
       </c>
     </row>
     <row r="18">
@@ -584,7 +584,7 @@
         <v>34700</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.0004765260175987504</v>
+        <v>0.0008601145393616104</v>
       </c>
     </row>
     <row r="19">
@@ -592,7 +592,7 @@
         <v>34790</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.001741107727716308</v>
+        <v>-0.0002213078788820738</v>
       </c>
     </row>
     <row r="20">
@@ -600,7 +600,7 @@
         <v>34881</v>
       </c>
       <c r="B20" t="n">
-        <v>0.002744876100845637</v>
+        <v>-0.0001374099696094281</v>
       </c>
     </row>
     <row r="21">
@@ -608,7 +608,7 @@
         <v>34973</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.002667556487118457</v>
+        <v>-0.0002241420360426512</v>
       </c>
     </row>
     <row r="22">
@@ -616,7 +616,7 @@
         <v>35065</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.007988289704445723</v>
+        <v>-0.0009219237965737927</v>
       </c>
     </row>
     <row r="23">
@@ -624,7 +624,7 @@
         <v>35156</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.003861305698816849</v>
+        <v>-0.0003700437995144463</v>
       </c>
     </row>
     <row r="24">
@@ -632,7 +632,7 @@
         <v>35247</v>
       </c>
       <c r="B24" t="n">
-        <v>0.003868670161952139</v>
+        <v>0.0001581977051856256</v>
       </c>
     </row>
     <row r="25">
@@ -640,7 +640,7 @@
         <v>35339</v>
       </c>
       <c r="B25" t="n">
-        <v>0.002360901869962242</v>
+        <v>0.0003683265844028934</v>
       </c>
     </row>
     <row r="26">
@@ -648,7 +648,7 @@
         <v>35431</v>
       </c>
       <c r="B26" t="n">
-        <v>0.002027385174157115</v>
+        <v>0.0004398906173282955</v>
       </c>
     </row>
     <row r="27">
@@ -656,7 +656,7 @@
         <v>35521</v>
       </c>
       <c r="B27" t="n">
-        <v>0.001667758967323527</v>
+        <v>0.0009291111813978283</v>
       </c>
     </row>
     <row r="28">
@@ -664,7 +664,7 @@
         <v>35612</v>
       </c>
       <c r="B28" t="n">
-        <v>0.004703245817344937</v>
+        <v>0.0008636233760685371</v>
       </c>
     </row>
     <row r="29">
@@ -672,7 +672,7 @@
         <v>35704</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0009392666555847872</v>
+        <v>-0.0001919715605192038</v>
       </c>
     </row>
     <row r="30">
@@ -680,7 +680,7 @@
         <v>35796</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.00134919434755667</v>
+        <v>-0.000323938935733543</v>
       </c>
     </row>
     <row r="31">
@@ -688,7 +688,7 @@
         <v>35886</v>
       </c>
       <c r="B31" t="n">
-        <v>0.002431741085871783</v>
+        <v>0.0002291604545965345</v>
       </c>
     </row>
     <row r="32">
@@ -696,7 +696,7 @@
         <v>35977</v>
       </c>
       <c r="B32" t="n">
-        <v>0.002221415574119182</v>
+        <v>-0.0003980136097214718</v>
       </c>
     </row>
     <row r="33">
@@ -704,7 +704,7 @@
         <v>36069</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.001612879990300891</v>
+        <v>-0.0007410904454800962</v>
       </c>
     </row>
     <row r="34">
@@ -712,7 +712,7 @@
         <v>36161</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.002295889578376578</v>
+        <v>-9.64529676515598e-05</v>
       </c>
     </row>
     <row r="35">
@@ -720,7 +720,7 @@
         <v>36251</v>
       </c>
       <c r="B35" t="n">
-        <v>0.005002915492278783</v>
+        <v>0.001404495348636433</v>
       </c>
     </row>
     <row r="36">
@@ -728,7 +728,7 @@
         <v>36342</v>
       </c>
       <c r="B36" t="n">
-        <v>0.01200637637662828</v>
+        <v>-2.887910347929956e-05</v>
       </c>
     </row>
     <row r="37">
@@ -736,7 +736,7 @@
         <v>36434</v>
       </c>
       <c r="B37" t="n">
-        <v>0.006780047035765274</v>
+        <v>6.541416161867007e-05</v>
       </c>
     </row>
     <row r="38">
@@ -744,7 +744,7 @@
         <v>36526</v>
       </c>
       <c r="B38" t="n">
-        <v>0.004515322318396102</v>
+        <v>0.001038739360303732</v>
       </c>
     </row>
     <row r="39">
@@ -752,7 +752,7 @@
         <v>36617</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.002339747940506366</v>
+        <v>0.0007216445292257045</v>
       </c>
     </row>
     <row r="40">
@@ -760,7 +760,7 @@
         <v>36708</v>
       </c>
       <c r="B40" t="n">
-        <v>0.002069228851034167</v>
+        <v>0.002535779435603071</v>
       </c>
     </row>
     <row r="41">
@@ -768,7 +768,7 @@
         <v>36800</v>
       </c>
       <c r="B41" t="n">
-        <v>0.005194829564606624</v>
+        <v>0.001638829200651582</v>
       </c>
     </row>
     <row r="42">
@@ -776,7 +776,7 @@
         <v>36892</v>
       </c>
       <c r="B42" t="n">
-        <v>0.002174508086085992</v>
+        <v>0.002046218519596107</v>
       </c>
     </row>
     <row r="43">
@@ -784,7 +784,7 @@
         <v>36982</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0005653109749925544</v>
+        <v>0.003187325348680352</v>
       </c>
     </row>
     <row r="44">
@@ -792,7 +792,7 @@
         <v>37073</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.001716250777245176</v>
+        <v>0.001864927170371945</v>
       </c>
     </row>
     <row r="45">
@@ -800,7 +800,7 @@
         <v>37165</v>
       </c>
       <c r="B45" t="n">
-        <v>-3.192356905555885e-05</v>
+        <v>-0.000872983253598025</v>
       </c>
     </row>
     <row r="46">
@@ -808,7 +808,7 @@
         <v>37257</v>
       </c>
       <c r="B46" t="n">
-        <v>0.00605764362632651</v>
+        <v>0.004204961271958962</v>
       </c>
     </row>
     <row r="47">
@@ -816,7 +816,7 @@
         <v>37347</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.002961568451503907</v>
+        <v>0.001608286665580641</v>
       </c>
     </row>
     <row r="48">
@@ -824,7 +824,7 @@
         <v>37438</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.001132787139766221</v>
+        <v>0.002127936239456094</v>
       </c>
     </row>
     <row r="49">
@@ -832,7 +832,7 @@
         <v>37530</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0009261017948046027</v>
+        <v>0.0001082571053733692</v>
       </c>
     </row>
     <row r="50">
@@ -840,7 +840,7 @@
         <v>37622</v>
       </c>
       <c r="B50" t="n">
-        <v>0.002547353606402539</v>
+        <v>0.001973836407273491</v>
       </c>
     </row>
     <row r="51">
@@ -848,7 +848,7 @@
         <v>37712</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.004668192534559648</v>
+        <v>-0.001203002447282039</v>
       </c>
     </row>
     <row r="52">
@@ -856,7 +856,7 @@
         <v>37803</v>
       </c>
       <c r="B52" t="n">
-        <v>0.001566896969124683</v>
+        <v>0.0002317882782722178</v>
       </c>
     </row>
     <row r="53">
@@ -864,7 +864,7 @@
         <v>37895</v>
       </c>
       <c r="B53" t="n">
-        <v>0.001780570211799304</v>
+        <v>-0.0005272749512989978</v>
       </c>
     </row>
     <row r="54">
@@ -872,7 +872,7 @@
         <v>37987</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0065239758354362</v>
+        <v>0.000138512523400279</v>
       </c>
     </row>
     <row r="55">
@@ -880,7 +880,7 @@
         <v>38078</v>
       </c>
       <c r="B55" t="n">
-        <v>0.003649273577345472</v>
+        <v>0.001499406817697824</v>
       </c>
     </row>
     <row r="56">
@@ -888,7 +888,7 @@
         <v>38169</v>
       </c>
       <c r="B56" t="n">
-        <v>0.006002717461444255</v>
+        <v>0.003622260531388652</v>
       </c>
     </row>
     <row r="57">
@@ -896,7 +896,7 @@
         <v>38261</v>
       </c>
       <c r="B57" t="n">
-        <v>0.007929197037439044</v>
+        <v>0.003801199235310847</v>
       </c>
     </row>
     <row r="58">
@@ -904,7 +904,7 @@
         <v>38353</v>
       </c>
       <c r="B58" t="n">
-        <v>0.005711134747283474</v>
+        <v>0.003636726959397611</v>
       </c>
     </row>
     <row r="59">
@@ -912,7 +912,7 @@
         <v>38443</v>
       </c>
       <c r="B59" t="n">
-        <v>0.006170843879468521</v>
+        <v>0.001756732974477516</v>
       </c>
     </row>
     <row r="60">
@@ -920,7 +920,7 @@
         <v>38534</v>
       </c>
       <c r="B60" t="n">
-        <v>0.005453251308497706</v>
+        <v>0.003754887680288152</v>
       </c>
     </row>
     <row r="61">
@@ -928,7 +928,7 @@
         <v>38626</v>
       </c>
       <c r="B61" t="n">
-        <v>0.001904723367037546</v>
+        <v>0.0029396817750743</v>
       </c>
     </row>
     <row r="62">
@@ -936,7 +936,7 @@
         <v>38718</v>
       </c>
       <c r="B62" t="n">
-        <v>0.005086262853980368</v>
+        <v>0.002740427437393553</v>
       </c>
     </row>
     <row r="63">
@@ -944,7 +944,7 @@
         <v>38808</v>
       </c>
       <c r="B63" t="n">
-        <v>0.005065200870941847</v>
+        <v>0.003192338443010556</v>
       </c>
     </row>
     <row r="64">
@@ -952,7 +952,7 @@
         <v>38899</v>
       </c>
       <c r="B64" t="n">
-        <v>0.005508708137904096</v>
+        <v>0.001976004963050906</v>
       </c>
     </row>
     <row r="65">
@@ -960,7 +960,7 @@
         <v>38991</v>
       </c>
       <c r="B65" t="n">
-        <v>0.002119243636832314</v>
+        <v>0.002935925466437468</v>
       </c>
     </row>
     <row r="66">
@@ -968,7 +968,7 @@
         <v>39083</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0005849494303425315</v>
+        <v>0.002110073869175962</v>
       </c>
     </row>
     <row r="67">
@@ -976,7 +976,7 @@
         <v>39173</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.0008038212689554574</v>
+        <v>0.004573277798140815</v>
       </c>
     </row>
     <row r="68">
@@ -984,7 +984,7 @@
         <v>39264</v>
       </c>
       <c r="B68" t="n">
-        <v>0.004991300420625731</v>
+        <v>0.004199156791527347</v>
       </c>
     </row>
     <row r="69">
@@ -992,7 +992,7 @@
         <v>39356</v>
       </c>
       <c r="B69" t="n">
-        <v>0.004246281922336254</v>
+        <v>0.005993701127270976</v>
       </c>
     </row>
     <row r="70">
@@ -1000,7 +1000,7 @@
         <v>39448</v>
       </c>
       <c r="B70" t="n">
-        <v>0.002564147918333314</v>
+        <v>0.003874028639390834</v>
       </c>
     </row>
     <row r="71">
@@ -1008,7 +1008,7 @@
         <v>39539</v>
       </c>
       <c r="B71" t="n">
-        <v>0.002860835054989106</v>
+        <v>0.004026765128454135</v>
       </c>
     </row>
     <row r="72">
@@ -1016,7 +1016,7 @@
         <v>39630</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.0008916873308461978</v>
+        <v>0.00455383710627836</v>
       </c>
     </row>
     <row r="73">
@@ -1024,7 +1024,7 @@
         <v>39722</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.003257613604269041</v>
+        <v>-7.613072421739003e-05</v>
       </c>
     </row>
     <row r="74">
@@ -1032,7 +1032,7 @@
         <v>39814</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.0008257502992726008</v>
+        <v>-0.0002359244213190355</v>
       </c>
     </row>
     <row r="75">
@@ -1040,7 +1040,7 @@
         <v>39904</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0007161103260703768</v>
+        <v>0.0002972391139464777</v>
       </c>
     </row>
     <row r="76">
@@ -1048,7 +1048,7 @@
         <v>39995</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.001224392914898549</v>
+        <v>0.0003983462374516764</v>
       </c>
     </row>
     <row r="77">
@@ -1056,7 +1056,7 @@
         <v>40087</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.0001617836362977862</v>
+        <v>0.0002788935846900923</v>
       </c>
     </row>
     <row r="78">
@@ -1064,7 +1064,7 @@
         <v>40179</v>
       </c>
       <c r="B78" t="n">
-        <v>0.003261608743157233</v>
+        <v>0.001114369088506902</v>
       </c>
     </row>
     <row r="79">
@@ -1072,7 +1072,7 @@
         <v>40269</v>
       </c>
       <c r="B79" t="n">
-        <v>0.001050742498873744</v>
+        <v>0.0005645873902917362</v>
       </c>
     </row>
     <row r="80">
@@ -1080,7 +1080,7 @@
         <v>40360</v>
       </c>
       <c r="B80" t="n">
-        <v>0.002245714091912755</v>
+        <v>6.483099664840178e-05</v>
       </c>
     </row>
     <row r="81">
@@ -1088,7 +1088,7 @@
         <v>40452</v>
       </c>
       <c r="B81" t="n">
-        <v>0.006048980939024405</v>
+        <v>0.001671728091588388</v>
       </c>
     </row>
     <row r="82">
@@ -1096,7 +1096,7 @@
         <v>40544</v>
       </c>
       <c r="B82" t="n">
-        <v>0.001697902004224927</v>
+        <v>0.003493934982256028</v>
       </c>
     </row>
     <row r="83">
@@ -1104,7 +1104,7 @@
         <v>40634</v>
       </c>
       <c r="B83" t="n">
-        <v>0.003215219290196009</v>
+        <v>0.002240817687213018</v>
       </c>
     </row>
     <row r="84">
@@ -1112,7 +1112,7 @@
         <v>40725</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0006409456725487732</v>
+        <v>0.001739625149932933</v>
       </c>
     </row>
     <row r="85">
@@ -1120,7 +1120,7 @@
         <v>40817</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.0006964706144369925</v>
+        <v>0.001023705118626414</v>
       </c>
     </row>
     <row r="86">
@@ -1128,7 +1128,7 @@
         <v>40909</v>
       </c>
       <c r="B86" t="n">
-        <v>0.002920346928847089</v>
+        <v>0.00189158494768029</v>
       </c>
     </row>
     <row r="87">
@@ -1136,7 +1136,7 @@
         <v>41000</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.001083587898738303</v>
+        <v>0.0008755306241607606</v>
       </c>
     </row>
     <row r="88">
@@ -1144,7 +1144,7 @@
         <v>41091</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.0006831442034754055</v>
+        <v>0.0009113339548254696</v>
       </c>
     </row>
     <row r="89">
@@ -1152,7 +1152,7 @@
         <v>41183</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0003720042694301571</v>
+        <v>-5.630971827134807e-07</v>
       </c>
     </row>
     <row r="90">
@@ -1160,7 +1160,7 @@
         <v>41275</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.003862041903874888</v>
+        <v>0.0002406814193355925</v>
       </c>
     </row>
     <row r="91">
@@ -1168,7 +1168,7 @@
         <v>41365</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.003582453206685228</v>
+        <v>-0.0009809052752380685</v>
       </c>
     </row>
     <row r="92">
@@ -1176,7 +1176,7 @@
         <v>41456</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.002920178163325266</v>
+        <v>-0.0005213185477023195</v>
       </c>
     </row>
     <row r="93">
@@ -1184,7 +1184,7 @@
         <v>41548</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.00961259000741407</v>
+        <v>-0.006096955079378409</v>
       </c>
     </row>
     <row r="94">
@@ -1192,7 +1192,7 @@
         <v>41640</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.01042059422255083</v>
+        <v>-0.007762874090251423</v>
       </c>
     </row>
     <row r="95">
@@ -1200,7 +1200,7 @@
         <v>41730</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.01051785287510463</v>
+        <v>-0.006345816120520184</v>
       </c>
     </row>
     <row r="96">
@@ -1208,7 +1208,7 @@
         <v>41821</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.01348447472578175</v>
+        <v>-0.008434323813728852</v>
       </c>
     </row>
     <row r="97">
@@ -1216,7 +1216,7 @@
         <v>41913</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.01508319940630862</v>
+        <v>-0.008165373289167051</v>
       </c>
     </row>
     <row r="98">
@@ -1224,7 +1224,7 @@
         <v>42005</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.007285625009545708</v>
+        <v>-0.005907138811226524</v>
       </c>
     </row>
     <row r="99">
@@ -1232,7 +1232,7 @@
         <v>42095</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.006999255351735909</v>
+        <v>-0.002318746421647016</v>
       </c>
     </row>
     <row r="100">
@@ -1240,7 +1240,7 @@
         <v>42186</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.01147321069460667</v>
+        <v>-0.003362343318526109</v>
       </c>
     </row>
     <row r="101">
@@ -1248,7 +1248,7 @@
         <v>42278</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.01234268003828012</v>
+        <v>-0.00357925200933007</v>
       </c>
     </row>
     <row r="102">
@@ -1256,7 +1256,7 @@
         <v>42370</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.01161837413023037</v>
+        <v>-0.00463762046362793</v>
       </c>
     </row>
     <row r="103">
@@ -1264,7 +1264,7 @@
         <v>42461</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.0088426827658069</v>
+        <v>-0.002777411673654731</v>
       </c>
     </row>
     <row r="104">
@@ -1272,7 +1272,7 @@
         <v>42552</v>
       </c>
       <c r="B104" t="n">
-        <v>0.002902793528986901</v>
+        <v>-0.001241045378162319</v>
       </c>
     </row>
     <row r="105">
@@ -1280,7 +1280,7 @@
         <v>42644</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.002473950962653385</v>
+        <v>0.0005183976267462713</v>
       </c>
     </row>
     <row r="106">
@@ -1288,7 +1288,7 @@
         <v>42736</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.0001967333967926585</v>
+        <v>0.0003288154690931545</v>
       </c>
     </row>
     <row r="107">
@@ -1296,7 +1296,7 @@
         <v>42826</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.002935978175498223</v>
+        <v>0.0004119682688713189</v>
       </c>
     </row>
     <row r="108">
@@ -1304,7 +1304,7 @@
         <v>42917</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.005891958726184606</v>
+        <v>-5.282650809499594e-05</v>
       </c>
     </row>
     <row r="109">
@@ -1312,7 +1312,7 @@
         <v>43009</v>
       </c>
       <c r="B109" t="n">
-        <v>0.006552745418139154</v>
+        <v>0.0006392561121312681</v>
       </c>
     </row>
     <row r="110">
@@ -1320,7 +1320,7 @@
         <v>43101</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.007412356273252339</v>
+        <v>0.0001853224323052946</v>
       </c>
     </row>
     <row r="111">
@@ -1328,7 +1328,7 @@
         <v>43191</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.001695300919337291</v>
+        <v>0.002376717496343798</v>
       </c>
     </row>
     <row r="112">
@@ -1336,7 +1336,7 @@
         <v>43282</v>
       </c>
       <c r="B112" t="n">
-        <v>0.001528865903416433</v>
+        <v>0.003376213445298076</v>
       </c>
     </row>
     <row r="113">
@@ -1344,7 +1344,7 @@
         <v>43374</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.002380221322021671</v>
+        <v>0.001584235436034639</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Regression/news_index_dire_senti_lex_PMI_q.xlsx
+++ b/Data/Regression/news_index_dire_senti_lex_PMI_q.xlsx
@@ -456,7 +456,7 @@
         <v>33239</v>
       </c>
       <c r="B2" t="n">
-        <v>0.001269100178029484</v>
+        <v>0.01485460742906574</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         <v>33329</v>
       </c>
       <c r="B3" t="n">
-        <v>0.002123493345024906</v>
+        <v>0.01475478701131352</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         <v>33420</v>
       </c>
       <c r="B4" t="n">
-        <v>0.002417570252038647</v>
+        <v>0.01631128144384226</v>
       </c>
     </row>
     <row r="5">
@@ -480,7 +480,7 @@
         <v>33512</v>
       </c>
       <c r="B5" t="n">
-        <v>0.001781278502778911</v>
+        <v>0.0136210575038563</v>
       </c>
     </row>
     <row r="6">
@@ -488,7 +488,7 @@
         <v>33604</v>
       </c>
       <c r="B6" t="n">
-        <v>0.002250665612961643</v>
+        <v>0.01523435918268777</v>
       </c>
     </row>
     <row r="7">
@@ -496,7 +496,7 @@
         <v>33695</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0009490788883929572</v>
+        <v>0.01027061389198232</v>
       </c>
     </row>
     <row r="8">
@@ -504,7 +504,7 @@
         <v>33786</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.000767355047224323</v>
+        <v>0.007766148897369677</v>
       </c>
     </row>
     <row r="9">
@@ -512,7 +512,7 @@
         <v>33878</v>
       </c>
       <c r="B9" t="n">
-        <v>0.00108105625348462</v>
+        <v>0.01201306729483227</v>
       </c>
     </row>
     <row r="10">
@@ -520,7 +520,7 @@
         <v>33970</v>
       </c>
       <c r="B10" t="n">
-        <v>0.002112638994823919</v>
+        <v>0.01484733055221635</v>
       </c>
     </row>
     <row r="11">
@@ -528,7 +528,7 @@
         <v>34060</v>
       </c>
       <c r="B11" t="n">
-        <v>0.001104501958068285</v>
+        <v>0.0110644655520447</v>
       </c>
     </row>
     <row r="12">
@@ -536,7 +536,7 @@
         <v>34151</v>
       </c>
       <c r="B12" t="n">
-        <v>0.001666610441856083</v>
+        <v>0.0114973745780164</v>
       </c>
     </row>
     <row r="13">
@@ -544,7 +544,7 @@
         <v>34243</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.0002267816933740923</v>
+        <v>0.009959718590278915</v>
       </c>
     </row>
     <row r="14">
@@ -552,7 +552,7 @@
         <v>34335</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0005049831457372668</v>
+        <v>0.01204597619118037</v>
       </c>
     </row>
     <row r="15">
@@ -560,7 +560,7 @@
         <v>34425</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0008337717494168152</v>
+        <v>0.01007535263011319</v>
       </c>
     </row>
     <row r="16">
@@ -568,7 +568,7 @@
         <v>34516</v>
       </c>
       <c r="B16" t="n">
-        <v>0.001182695661209042</v>
+        <v>0.01234910868497521</v>
       </c>
     </row>
     <row r="17">
@@ -576,7 +576,7 @@
         <v>34608</v>
       </c>
       <c r="B17" t="n">
-        <v>0.001221456864996257</v>
+        <v>0.01480400836340873</v>
       </c>
     </row>
     <row r="18">
@@ -584,7 +584,7 @@
         <v>34700</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0008601145393616104</v>
+        <v>0.01303150096240637</v>
       </c>
     </row>
     <row r="19">
@@ -592,7 +592,7 @@
         <v>34790</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.0002213078788820738</v>
+        <v>0.01126431473598942</v>
       </c>
     </row>
     <row r="20">
@@ -600,7 +600,7 @@
         <v>34881</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.0001374099696094281</v>
+        <v>0.0122015644748675</v>
       </c>
     </row>
     <row r="21">
@@ -608,7 +608,7 @@
         <v>34973</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.0002241420360426512</v>
+        <v>0.009532433470745916</v>
       </c>
     </row>
     <row r="22">
@@ -616,7 +616,7 @@
         <v>35065</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.0009219237965737927</v>
+        <v>0.01104863485817691</v>
       </c>
     </row>
     <row r="23">
@@ -624,7 +624,7 @@
         <v>35156</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.0003700437995144463</v>
+        <v>0.00889012591182441</v>
       </c>
     </row>
     <row r="24">
@@ -632,7 +632,7 @@
         <v>35247</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0001581977051856256</v>
+        <v>0.009533956288241278</v>
       </c>
     </row>
     <row r="25">
@@ -640,7 +640,7 @@
         <v>35339</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0003683265844028934</v>
+        <v>0.008891364769180576</v>
       </c>
     </row>
     <row r="26">
@@ -648,7 +648,7 @@
         <v>35431</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0004398906173282955</v>
+        <v>0.0112870272902584</v>
       </c>
     </row>
     <row r="27">
@@ -656,7 +656,7 @@
         <v>35521</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0009291111813978283</v>
+        <v>0.009841547863286157</v>
       </c>
     </row>
     <row r="28">
@@ -664,7 +664,7 @@
         <v>35612</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0008636233760685371</v>
+        <v>0.00968048938913319</v>
       </c>
     </row>
     <row r="29">
@@ -672,7 +672,7 @@
         <v>35704</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.0001919715605192038</v>
+        <v>0.0102629033052666</v>
       </c>
     </row>
     <row r="30">
@@ -680,7 +680,7 @@
         <v>35796</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.000323938935733543</v>
+        <v>0.0102012072678472</v>
       </c>
     </row>
     <row r="31">
@@ -688,7 +688,7 @@
         <v>35886</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0002291604545965345</v>
+        <v>0.008177908596078885</v>
       </c>
     </row>
     <row r="32">
@@ -696,7 +696,7 @@
         <v>35977</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.0003980136097214718</v>
+        <v>0.008019592436284787</v>
       </c>
     </row>
     <row r="33">
@@ -704,7 +704,7 @@
         <v>36069</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.0007410904454800962</v>
+        <v>0.008306714923180653</v>
       </c>
     </row>
     <row r="34">
@@ -712,7 +712,7 @@
         <v>36161</v>
       </c>
       <c r="B34" t="n">
-        <v>-9.64529676515598e-05</v>
+        <v>0.006824157717657177</v>
       </c>
     </row>
     <row r="35">
@@ -720,7 +720,7 @@
         <v>36251</v>
       </c>
       <c r="B35" t="n">
-        <v>0.001404495348636433</v>
+        <v>0.01055669844687179</v>
       </c>
     </row>
     <row r="36">
@@ -728,7 +728,7 @@
         <v>36342</v>
       </c>
       <c r="B36" t="n">
-        <v>-2.887910347929956e-05</v>
+        <v>0.01043933143212273</v>
       </c>
     </row>
     <row r="37">
@@ -736,7 +736,7 @@
         <v>36434</v>
       </c>
       <c r="B37" t="n">
-        <v>6.541416161867007e-05</v>
+        <v>0.01035300880979493</v>
       </c>
     </row>
     <row r="38">
@@ -744,7 +744,7 @@
         <v>36526</v>
       </c>
       <c r="B38" t="n">
-        <v>0.001038739360303732</v>
+        <v>0.01277392837392747</v>
       </c>
     </row>
     <row r="39">
@@ -752,7 +752,7 @@
         <v>36617</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0007216445292257045</v>
+        <v>0.01210938774453994</v>
       </c>
     </row>
     <row r="40">
@@ -760,7 +760,7 @@
         <v>36708</v>
       </c>
       <c r="B40" t="n">
-        <v>0.002535779435603071</v>
+        <v>0.01465336469793426</v>
       </c>
     </row>
     <row r="41">
@@ -768,7 +768,7 @@
         <v>36800</v>
       </c>
       <c r="B41" t="n">
-        <v>0.001638829200651582</v>
+        <v>0.01559603498221314</v>
       </c>
     </row>
     <row r="42">
@@ -776,7 +776,7 @@
         <v>36892</v>
       </c>
       <c r="B42" t="n">
-        <v>0.002046218519596107</v>
+        <v>0.01432696528273788</v>
       </c>
     </row>
     <row r="43">
@@ -784,7 +784,7 @@
         <v>36982</v>
       </c>
       <c r="B43" t="n">
-        <v>0.003187325348680352</v>
+        <v>0.01508896736263549</v>
       </c>
     </row>
     <row r="44">
@@ -792,7 +792,7 @@
         <v>37073</v>
       </c>
       <c r="B44" t="n">
-        <v>0.001864927170371945</v>
+        <v>0.01289549401912196</v>
       </c>
     </row>
     <row r="45">
@@ -800,7 +800,7 @@
         <v>37165</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.000872983253598025</v>
+        <v>0.009981699041254243</v>
       </c>
     </row>
     <row r="46">
@@ -808,7 +808,7 @@
         <v>37257</v>
       </c>
       <c r="B46" t="n">
-        <v>0.004204961271958962</v>
+        <v>0.01995589344484167</v>
       </c>
     </row>
     <row r="47">
@@ -816,7 +816,7 @@
         <v>37347</v>
       </c>
       <c r="B47" t="n">
-        <v>0.001608286665580641</v>
+        <v>0.01445023385315187</v>
       </c>
     </row>
     <row r="48">
@@ -824,7 +824,7 @@
         <v>37438</v>
       </c>
       <c r="B48" t="n">
-        <v>0.002127936239456094</v>
+        <v>0.01234280673218862</v>
       </c>
     </row>
     <row r="49">
@@ -832,7 +832,7 @@
         <v>37530</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0001082571053733692</v>
+        <v>0.006872391932694065</v>
       </c>
     </row>
     <row r="50">
@@ -840,7 +840,7 @@
         <v>37622</v>
       </c>
       <c r="B50" t="n">
-        <v>0.001973836407273491</v>
+        <v>0.01638749977071374</v>
       </c>
     </row>
     <row r="51">
@@ -848,7 +848,7 @@
         <v>37712</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.001203002447282039</v>
+        <v>0.002738344382851657</v>
       </c>
     </row>
     <row r="52">
@@ -856,7 +856,7 @@
         <v>37803</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0002317882782722178</v>
+        <v>0.007482609223375391</v>
       </c>
     </row>
     <row r="53">
@@ -864,7 +864,7 @@
         <v>37895</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.0005272749512989978</v>
+        <v>0.009193130734780989</v>
       </c>
     </row>
     <row r="54">
@@ -872,7 +872,7 @@
         <v>37987</v>
       </c>
       <c r="B54" t="n">
-        <v>0.000138512523400279</v>
+        <v>0.01006278809647056</v>
       </c>
     </row>
     <row r="55">
@@ -880,7 +880,7 @@
         <v>38078</v>
       </c>
       <c r="B55" t="n">
-        <v>0.001499406817697824</v>
+        <v>0.01275537740076932</v>
       </c>
     </row>
     <row r="56">
@@ -888,7 +888,7 @@
         <v>38169</v>
       </c>
       <c r="B56" t="n">
-        <v>0.003622260531388652</v>
+        <v>0.01671209102635218</v>
       </c>
     </row>
     <row r="57">
@@ -896,7 +896,7 @@
         <v>38261</v>
       </c>
       <c r="B57" t="n">
-        <v>0.003801199235310847</v>
+        <v>0.01869721344944102</v>
       </c>
     </row>
     <row r="58">
@@ -904,7 +904,7 @@
         <v>38353</v>
       </c>
       <c r="B58" t="n">
-        <v>0.003636726959397611</v>
+        <v>0.01595392663670921</v>
       </c>
     </row>
     <row r="59">
@@ -912,7 +912,7 @@
         <v>38443</v>
       </c>
       <c r="B59" t="n">
-        <v>0.001756732974477516</v>
+        <v>0.01549138786604743</v>
       </c>
     </row>
     <row r="60">
@@ -920,7 +920,7 @@
         <v>38534</v>
       </c>
       <c r="B60" t="n">
-        <v>0.003754887680288152</v>
+        <v>0.01723366685940907</v>
       </c>
     </row>
     <row r="61">
@@ -928,7 +928,7 @@
         <v>38626</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0029396817750743</v>
+        <v>0.01756281253464191</v>
       </c>
     </row>
     <row r="62">
@@ -936,7 +936,7 @@
         <v>38718</v>
       </c>
       <c r="B62" t="n">
-        <v>0.002740427437393553</v>
+        <v>0.01433050842168644</v>
       </c>
     </row>
     <row r="63">
@@ -944,7 +944,7 @@
         <v>38808</v>
       </c>
       <c r="B63" t="n">
-        <v>0.003192338443010556</v>
+        <v>0.01802977847850361</v>
       </c>
     </row>
     <row r="64">
@@ -952,7 +952,7 @@
         <v>38899</v>
       </c>
       <c r="B64" t="n">
-        <v>0.001976004963050906</v>
+        <v>0.01478057579158667</v>
       </c>
     </row>
     <row r="65">
@@ -960,7 +960,7 @@
         <v>38991</v>
       </c>
       <c r="B65" t="n">
-        <v>0.002935925466437468</v>
+        <v>0.01635213275990328</v>
       </c>
     </row>
     <row r="66">
@@ -968,7 +968,7 @@
         <v>39083</v>
       </c>
       <c r="B66" t="n">
-        <v>0.002110073869175962</v>
+        <v>0.01260153657281942</v>
       </c>
     </row>
     <row r="67">
@@ -976,7 +976,7 @@
         <v>39173</v>
       </c>
       <c r="B67" t="n">
-        <v>0.004573277798140815</v>
+        <v>0.01824012836678651</v>
       </c>
     </row>
     <row r="68">
@@ -984,7 +984,7 @@
         <v>39264</v>
       </c>
       <c r="B68" t="n">
-        <v>0.004199156791527347</v>
+        <v>0.0183463602351417</v>
       </c>
     </row>
     <row r="69">
@@ -992,7 +992,7 @@
         <v>39356</v>
       </c>
       <c r="B69" t="n">
-        <v>0.005993701127270976</v>
+        <v>0.02363405072623236</v>
       </c>
     </row>
     <row r="70">
@@ -1000,7 +1000,7 @@
         <v>39448</v>
       </c>
       <c r="B70" t="n">
-        <v>0.003874028639390834</v>
+        <v>0.01807400922714204</v>
       </c>
     </row>
     <row r="71">
@@ -1008,7 +1008,7 @@
         <v>39539</v>
       </c>
       <c r="B71" t="n">
-        <v>0.004026765128454135</v>
+        <v>0.01992844048018992</v>
       </c>
     </row>
     <row r="72">
@@ -1016,7 +1016,7 @@
         <v>39630</v>
       </c>
       <c r="B72" t="n">
-        <v>0.00455383710627836</v>
+        <v>0.02014950945763091</v>
       </c>
     </row>
     <row r="73">
@@ -1024,7 +1024,7 @@
         <v>39722</v>
       </c>
       <c r="B73" t="n">
-        <v>-7.613072421739003e-05</v>
+        <v>0.0090426880724832</v>
       </c>
     </row>
     <row r="74">
@@ -1032,7 +1032,7 @@
         <v>39814</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.0002359244213190355</v>
+        <v>0.01065273681603066</v>
       </c>
     </row>
     <row r="75">
@@ -1040,7 +1040,7 @@
         <v>39904</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0002972391139464777</v>
+        <v>0.003204780082580086</v>
       </c>
     </row>
     <row r="76">
@@ -1048,7 +1048,7 @@
         <v>39995</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0003983462374516764</v>
+        <v>0.007980702080516804</v>
       </c>
     </row>
     <row r="77">
@@ -1056,7 +1056,7 @@
         <v>40087</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0002788935846900923</v>
+        <v>0.009372352046008711</v>
       </c>
     </row>
     <row r="78">
@@ -1064,7 +1064,7 @@
         <v>40179</v>
       </c>
       <c r="B78" t="n">
-        <v>0.001114369088506902</v>
+        <v>0.01009888757091005</v>
       </c>
     </row>
     <row r="79">
@@ -1072,7 +1072,7 @@
         <v>40269</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0005645873902917362</v>
+        <v>0.009657456788276144</v>
       </c>
     </row>
     <row r="80">
@@ -1080,7 +1080,7 @@
         <v>40360</v>
       </c>
       <c r="B80" t="n">
-        <v>6.483099664840178e-05</v>
+        <v>0.008099419563838065</v>
       </c>
     </row>
     <row r="81">
@@ -1088,7 +1088,7 @@
         <v>40452</v>
       </c>
       <c r="B81" t="n">
-        <v>0.001671728091588388</v>
+        <v>0.01210667868901669</v>
       </c>
     </row>
     <row r="82">
@@ -1096,7 +1096,7 @@
         <v>40544</v>
       </c>
       <c r="B82" t="n">
-        <v>0.003493934982256028</v>
+        <v>0.01721778392328951</v>
       </c>
     </row>
     <row r="83">
@@ -1104,7 +1104,7 @@
         <v>40634</v>
       </c>
       <c r="B83" t="n">
-        <v>0.002240817687213018</v>
+        <v>0.01575066144393114</v>
       </c>
     </row>
     <row r="84">
@@ -1112,7 +1112,7 @@
         <v>40725</v>
       </c>
       <c r="B84" t="n">
-        <v>0.001739625149932933</v>
+        <v>0.01502787162044878</v>
       </c>
     </row>
     <row r="85">
@@ -1120,7 +1120,7 @@
         <v>40817</v>
       </c>
       <c r="B85" t="n">
-        <v>0.001023705118626414</v>
+        <v>0.0127909565252697</v>
       </c>
     </row>
     <row r="86">
@@ -1128,7 +1128,7 @@
         <v>40909</v>
       </c>
       <c r="B86" t="n">
-        <v>0.00189158494768029</v>
+        <v>0.01437140075776957</v>
       </c>
     </row>
     <row r="87">
@@ -1136,7 +1136,7 @@
         <v>41000</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0008755306241607606</v>
+        <v>0.01048927278861965</v>
       </c>
     </row>
     <row r="88">
@@ -1144,7 +1144,7 @@
         <v>41091</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0009113339548254696</v>
+        <v>0.01021061785872339</v>
       </c>
     </row>
     <row r="89">
@@ -1152,7 +1152,7 @@
         <v>41183</v>
       </c>
       <c r="B89" t="n">
-        <v>-5.630971827134807e-07</v>
+        <v>0.009159217145070668</v>
       </c>
     </row>
     <row r="90">
@@ -1160,7 +1160,7 @@
         <v>41275</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0002406814193355925</v>
+        <v>0.01077696300750102</v>
       </c>
     </row>
     <row r="91">
@@ -1168,7 +1168,7 @@
         <v>41365</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.0009809052752380685</v>
+        <v>0.006848845232256384</v>
       </c>
     </row>
     <row r="92">
@@ -1176,7 +1176,7 @@
         <v>41456</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.0005213185477023195</v>
+        <v>0.009646591872500379</v>
       </c>
     </row>
     <row r="93">
@@ -1184,7 +1184,7 @@
         <v>41548</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.006096955079378409</v>
+        <v>0.0002974083383921919</v>
       </c>
     </row>
     <row r="94">
@@ -1192,7 +1192,7 @@
         <v>41640</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.007762874090251423</v>
+        <v>-0.003517702144032484</v>
       </c>
     </row>
     <row r="95">
@@ -1200,7 +1200,7 @@
         <v>41730</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.006345816120520184</v>
+        <v>-0.006486592998575496</v>
       </c>
     </row>
     <row r="96">
@@ -1208,7 +1208,7 @@
         <v>41821</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.008434323813728852</v>
+        <v>-0.005558543296181825</v>
       </c>
     </row>
     <row r="97">
@@ -1216,7 +1216,7 @@
         <v>41913</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.008165373289167051</v>
+        <v>-0.006523726339643045</v>
       </c>
     </row>
     <row r="98">
@@ -1224,7 +1224,7 @@
         <v>42005</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.005907138811226524</v>
+        <v>-0.008173784071105861</v>
       </c>
     </row>
     <row r="99">
@@ -1232,7 +1232,7 @@
         <v>42095</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.002318746421647016</v>
+        <v>0.007161860357728002</v>
       </c>
     </row>
     <row r="100">
@@ -1240,7 +1240,7 @@
         <v>42186</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.003362343318526109</v>
+        <v>0.003817942665979272</v>
       </c>
     </row>
     <row r="101">
@@ -1248,7 +1248,7 @@
         <v>42278</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.00357925200933007</v>
+        <v>0.001079330136709789</v>
       </c>
     </row>
     <row r="102">
@@ -1256,7 +1256,7 @@
         <v>42370</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.00463762046362793</v>
+        <v>0.0003959539952388095</v>
       </c>
     </row>
     <row r="103">
@@ -1264,7 +1264,7 @@
         <v>42461</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.002777411673654731</v>
+        <v>7.973754606731512e-05</v>
       </c>
     </row>
     <row r="104">
@@ -1272,7 +1272,7 @@
         <v>42552</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.001241045378162319</v>
+        <v>0.00498475684493412</v>
       </c>
     </row>
     <row r="105">
@@ -1280,7 +1280,7 @@
         <v>42644</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0005183976267462713</v>
+        <v>0.01082749340704957</v>
       </c>
     </row>
     <row r="106">
@@ -1288,7 +1288,7 @@
         <v>42736</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0003288154690931545</v>
+        <v>0.01287098197339833</v>
       </c>
     </row>
     <row r="107">
@@ -1296,7 +1296,7 @@
         <v>42826</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0004119682688713189</v>
+        <v>0.008867820152754667</v>
       </c>
     </row>
     <row r="108">
@@ -1304,7 +1304,7 @@
         <v>42917</v>
       </c>
       <c r="B108" t="n">
-        <v>-5.282650809499594e-05</v>
+        <v>0.008378815891397461</v>
       </c>
     </row>
     <row r="109">
@@ -1312,7 +1312,7 @@
         <v>43009</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0006392561121312681</v>
+        <v>0.01198353525779846</v>
       </c>
     </row>
     <row r="110">
@@ -1320,7 +1320,7 @@
         <v>43101</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0001853224323052946</v>
+        <v>0.01102681627352296</v>
       </c>
     </row>
     <row r="111">
@@ -1328,7 +1328,7 @@
         <v>43191</v>
       </c>
       <c r="B111" t="n">
-        <v>0.002376717496343798</v>
+        <v>0.01852870476221294</v>
       </c>
     </row>
     <row r="112">
@@ -1336,7 +1336,7 @@
         <v>43282</v>
       </c>
       <c r="B112" t="n">
-        <v>0.003376213445298076</v>
+        <v>0.01745361509223336</v>
       </c>
     </row>
     <row r="113">
@@ -1344,7 +1344,7 @@
         <v>43374</v>
       </c>
       <c r="B113" t="n">
-        <v>0.001584235436034639</v>
+        <v>0.01290935686901299</v>
       </c>
     </row>
   </sheetData>
